--- a/数据挖掘实战-KNN推荐、聚类分析（旅游项目）/测试文本.xlsx
+++ b/数据挖掘实战-KNN推荐、聚类分析（旅游项目）/测试文本.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_yuhaozeng\Desktop\旅游评论分析(1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\data-visualization3\数据挖掘实战-KNN推荐、聚类分析（旅游项目）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0F03F-3533-453A-A8C1-17D8941E2071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADBB758-674A-40A3-B77F-D282E258CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>content</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>夜晚来欣赏东方明珠，真是感觉漂亮，不停变化灯光，印衬着周围造型各异的摩登摩天大楼，让人止不住要拍照留影。这是新上海啊，媲美全球各地。</t>
+  </si>
+  <si>
+    <t>想和家人一起旅游  希望排队时间少  景点具有特色</t>
   </si>
 </sst>
 </file>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,6 +617,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
